--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Inhba</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhba</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H2">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I2">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J2">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>2.060693303356</v>
+        <v>26.19569286333866</v>
       </c>
       <c r="R2">
-        <v>18.546239730204</v>
+        <v>235.761235770048</v>
       </c>
       <c r="S2">
-        <v>0.004316604921066575</v>
+        <v>0.1232070664062478</v>
       </c>
       <c r="T2">
-        <v>0.005738189108672105</v>
+        <v>0.1346496775493559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H3">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I3">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J3">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
-        <v>4.982340323872</v>
+        <v>74.196863852704</v>
       </c>
       <c r="R3">
-        <v>44.841062914848</v>
+        <v>667.771774674336</v>
       </c>
       <c r="S3">
-        <v>0.01043667911446541</v>
+        <v>0.3489725574172245</v>
       </c>
       <c r="T3">
-        <v>0.01387378264178359</v>
+        <v>0.3813826893245511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H4">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I4">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J4">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>1.115584922633333</v>
+        <v>23.53575920230666</v>
       </c>
       <c r="R4">
-        <v>10.0402643037</v>
+        <v>211.82183282076</v>
       </c>
       <c r="S4">
-        <v>0.00233685398941426</v>
+        <v>0.1106965126705367</v>
       </c>
       <c r="T4">
-        <v>0.003106448321265549</v>
+        <v>0.1209772310281231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H5">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I5">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J5">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>2.513130883926</v>
+        <v>49.82770843198799</v>
       </c>
       <c r="R5">
-        <v>15.078785303556</v>
+        <v>298.966250591928</v>
       </c>
       <c r="S5">
-        <v>0.005264341434590113</v>
+        <v>0.2343563048199773</v>
       </c>
       <c r="T5">
-        <v>0.004665361974155735</v>
+        <v>0.1707477868821778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H6">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I6">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J6">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>1.261333486086667</v>
+        <v>21.69134890739867</v>
       </c>
       <c r="R6">
-        <v>11.35200137478</v>
+        <v>195.222140166588</v>
       </c>
       <c r="S6">
-        <v>0.00264215850281101</v>
+        <v>0.1020216368857801</v>
       </c>
       <c r="T6">
-        <v>0.003512298535875599</v>
+        <v>0.1114966934155584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H7">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I7">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J7">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N7">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O7">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P7">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q7">
-        <v>30.687783357292</v>
+        <v>1.712661562464</v>
       </c>
       <c r="R7">
-        <v>276.190050215628</v>
+        <v>15.413954062176</v>
       </c>
       <c r="S7">
-        <v>0.06428275204319764</v>
+        <v>0.008055217625232017</v>
       </c>
       <c r="T7">
-        <v>0.08545294146553588</v>
+        <v>0.008803329934429617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H8">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I8">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J8">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P8">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q8">
-        <v>74.196863852704</v>
+        <v>4.850954599248</v>
       </c>
       <c r="R8">
-        <v>667.771774674336</v>
+        <v>43.658591393232</v>
       </c>
       <c r="S8">
-        <v>0.1554227148274273</v>
+        <v>0.02281565479337613</v>
       </c>
       <c r="T8">
-        <v>0.2066079582846398</v>
+        <v>0.02493461333521146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H9">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I9">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J9">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N9">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O9">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P9">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q9">
-        <v>16.61325747343333</v>
+        <v>1.53875640318</v>
       </c>
       <c r="R9">
-        <v>149.5193172609</v>
+        <v>13.84880762862</v>
       </c>
       <c r="S9">
-        <v>0.03480036007686265</v>
+        <v>0.007237283752664768</v>
       </c>
       <c r="T9">
-        <v>0.04626113596737963</v>
+        <v>0.007909432080919071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H10">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I10">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J10">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N10">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O10">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P10">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q10">
-        <v>37.425470344782</v>
+        <v>3.257711159706</v>
       </c>
       <c r="R10">
-        <v>224.552822068692</v>
+        <v>19.546266958236</v>
       </c>
       <c r="S10">
-        <v>0.07839641600252632</v>
+        <v>0.01532210036513294</v>
       </c>
       <c r="T10">
-        <v>0.06947643170047499</v>
+        <v>0.01116340663308685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H11">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I11">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J11">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N11">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O11">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P11">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q11">
-        <v>18.78374074360666</v>
+        <v>1.418169761934</v>
       </c>
       <c r="R11">
-        <v>169.05366669246</v>
+        <v>12.763527857406</v>
       </c>
       <c r="S11">
-        <v>0.03934694580597845</v>
+        <v>0.006670124624894754</v>
       </c>
       <c r="T11">
-        <v>0.05230504528720917</v>
+        <v>0.007289599177653601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H12">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I12">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J12">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N12">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O12">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P12">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q12">
-        <v>0.3479868798656667</v>
+        <v>0.588329444928</v>
       </c>
       <c r="R12">
-        <v>3.131881918791</v>
+        <v>5.294965004352001</v>
       </c>
       <c r="S12">
-        <v>0.0007289400492777926</v>
+        <v>0.002767109286559125</v>
       </c>
       <c r="T12">
-        <v>0.000969001316573402</v>
+        <v>0.003024099055735007</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H13">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I13">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J13">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>59.522376</v>
       </c>
       <c r="O13">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P13">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q13">
-        <v>0.8413620119546668</v>
+        <v>1.666388438496</v>
       </c>
       <c r="R13">
-        <v>7.572258107592</v>
+        <v>14.997495946464</v>
       </c>
       <c r="S13">
-        <v>0.001762429855664244</v>
+        <v>0.007837579714782671</v>
       </c>
       <c r="T13">
-        <v>0.002342849528159341</v>
+        <v>0.008565479336088986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H14">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I14">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J14">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N14">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O14">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P14">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q14">
-        <v>0.1883875275472222</v>
+        <v>0.5285899563600001</v>
       </c>
       <c r="R14">
-        <v>1.695487747925</v>
+        <v>4.757309607240001</v>
       </c>
       <c r="S14">
-        <v>0.0003946218135195341</v>
+        <v>0.002486134579248605</v>
       </c>
       <c r="T14">
-        <v>0.000524582312671487</v>
+        <v>0.00271702938154814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H15">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I15">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J15">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N15">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O15">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P15">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q15">
-        <v>0.4243894875415001</v>
+        <v>1.119081224412</v>
       </c>
       <c r="R15">
-        <v>2.546336925249</v>
+        <v>6.714487346472001</v>
       </c>
       <c r="S15">
-        <v>0.0008889832113236518</v>
+        <v>0.005263411639822596</v>
       </c>
       <c r="T15">
-        <v>0.0007878342469432057</v>
+        <v>0.003834827015385647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H16">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I16">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J16">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N16">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O16">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P16">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q16">
-        <v>0.2129999178327778</v>
+        <v>0.487166318868</v>
       </c>
       <c r="R16">
-        <v>1.916999260495</v>
+        <v>4.384496869812001</v>
       </c>
       <c r="S16">
-        <v>0.0004461782313779398</v>
+        <v>0.00229130541852013</v>
       </c>
       <c r="T16">
-        <v>0.0005931177660768809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.754686</v>
-      </c>
-      <c r="H17">
-        <v>11.509372</v>
-      </c>
-      <c r="I17">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J17">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8.206141000000001</v>
-      </c>
-      <c r="N17">
-        <v>24.618423</v>
-      </c>
-      <c r="O17">
-        <v>0.1726874201070044</v>
-      </c>
-      <c r="P17">
-        <v>0.185725470694853</v>
-      </c>
-      <c r="Q17">
-        <v>47.223764726726</v>
-      </c>
-      <c r="R17">
-        <v>283.342588360356</v>
-      </c>
-      <c r="S17">
-        <v>0.09892123921531452</v>
-      </c>
-      <c r="T17">
-        <v>0.08766593003240956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.754686</v>
-      </c>
-      <c r="H18">
-        <v>11.509372</v>
-      </c>
-      <c r="I18">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J18">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>19.840792</v>
-      </c>
-      <c r="N18">
-        <v>59.522376</v>
-      </c>
-      <c r="O18">
-        <v>0.4175233137426827</v>
-      </c>
-      <c r="P18">
-        <v>0.4490466874939968</v>
-      </c>
-      <c r="Q18">
-        <v>114.177527951312</v>
-      </c>
-      <c r="R18">
-        <v>685.065167707872</v>
-      </c>
-      <c r="S18">
-        <v>0.239171582800405</v>
-      </c>
-      <c r="T18">
-        <v>0.2119585178050915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.754686</v>
-      </c>
-      <c r="H19">
-        <v>11.509372</v>
-      </c>
-      <c r="I19">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J19">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.442508333333333</v>
-      </c>
-      <c r="N19">
-        <v>13.327525</v>
-      </c>
-      <c r="O19">
-        <v>0.09348673181306549</v>
-      </c>
-      <c r="P19">
-        <v>0.100545061469714</v>
-      </c>
-      <c r="Q19">
-        <v>25.56524051071666</v>
-      </c>
-      <c r="R19">
-        <v>153.3914430642999</v>
-      </c>
-      <c r="S19">
-        <v>0.05355238589706109</v>
-      </c>
-      <c r="T19">
-        <v>0.04745916804480892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.754686</v>
-      </c>
-      <c r="H20">
-        <v>11.509372</v>
-      </c>
-      <c r="I20">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J20">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.0078485</v>
-      </c>
-      <c r="N20">
-        <v>20.015697</v>
-      </c>
-      <c r="O20">
-        <v>0.2106019794549903</v>
-      </c>
-      <c r="P20">
-        <v>0.1510017415254648</v>
-      </c>
-      <c r="Q20">
-        <v>57.592025653071</v>
-      </c>
-      <c r="R20">
-        <v>230.368102612284</v>
-      </c>
-      <c r="S20">
-        <v>0.1206399908920803</v>
-      </c>
-      <c r="T20">
-        <v>0.07127567402477041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.754686</v>
-      </c>
-      <c r="H21">
-        <v>11.509372</v>
-      </c>
-      <c r="I21">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J21">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.022911666666666</v>
-      </c>
-      <c r="N21">
-        <v>15.068735</v>
-      </c>
-      <c r="O21">
-        <v>0.1057005548822571</v>
-      </c>
-      <c r="P21">
-        <v>0.1136810388159715</v>
-      </c>
-      <c r="Q21">
-        <v>28.90527944740333</v>
-      </c>
-      <c r="R21">
-        <v>173.43167668442</v>
-      </c>
-      <c r="S21">
-        <v>0.06054887998338408</v>
-      </c>
-      <c r="T21">
-        <v>0.05365959745621891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.774514</v>
-      </c>
-      <c r="I22">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J22">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.206141000000001</v>
-      </c>
-      <c r="N22">
-        <v>24.618423</v>
-      </c>
-      <c r="O22">
-        <v>0.1726874201070044</v>
-      </c>
-      <c r="P22">
-        <v>0.185725470694853</v>
-      </c>
-      <c r="Q22">
-        <v>2.118590363491334</v>
-      </c>
-      <c r="R22">
-        <v>19.067313271422</v>
-      </c>
-      <c r="S22">
-        <v>0.004437883878147891</v>
-      </c>
-      <c r="T22">
-        <v>0.005899408771662057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.774514</v>
-      </c>
-      <c r="I23">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J23">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>19.840792</v>
-      </c>
-      <c r="N23">
-        <v>59.522376</v>
-      </c>
-      <c r="O23">
-        <v>0.4175233137426827</v>
-      </c>
-      <c r="P23">
-        <v>0.4490466874939968</v>
-      </c>
-      <c r="Q23">
-        <v>5.122323725029334</v>
-      </c>
-      <c r="R23">
-        <v>46.100913525264</v>
-      </c>
-      <c r="S23">
-        <v>0.01072990714472072</v>
-      </c>
-      <c r="T23">
-        <v>0.01426357923432249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.774514</v>
-      </c>
-      <c r="I24">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J24">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>4.442508333333333</v>
-      </c>
-      <c r="N24">
-        <v>13.327525</v>
-      </c>
-      <c r="O24">
-        <v>0.09348673181306549</v>
-      </c>
-      <c r="P24">
-        <v>0.100545061469714</v>
-      </c>
-      <c r="Q24">
-        <v>1.146928299761111</v>
-      </c>
-      <c r="R24">
-        <v>10.32235469785</v>
-      </c>
-      <c r="S24">
-        <v>0.002402510036207963</v>
-      </c>
-      <c r="T24">
-        <v>0.003193726823588389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.774514</v>
-      </c>
-      <c r="I25">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J25">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>10.0078485</v>
-      </c>
-      <c r="N25">
-        <v>20.015697</v>
-      </c>
-      <c r="O25">
-        <v>0.2106019794549903</v>
-      </c>
-      <c r="P25">
-        <v>0.1510017415254648</v>
-      </c>
-      <c r="Q25">
-        <v>2.583739591043001</v>
-      </c>
-      <c r="R25">
-        <v>15.502437546258</v>
-      </c>
-      <c r="S25">
-        <v>0.005412247914469975</v>
-      </c>
-      <c r="T25">
-        <v>0.004796439579120479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.774514</v>
-      </c>
-      <c r="I26">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J26">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>5.022911666666666</v>
-      </c>
-      <c r="N26">
-        <v>15.068735</v>
-      </c>
-      <c r="O26">
-        <v>0.1057005548822571</v>
-      </c>
-      <c r="P26">
-        <v>0.1136810388159715</v>
-      </c>
-      <c r="Q26">
-        <v>1.296771802198889</v>
-      </c>
-      <c r="R26">
-        <v>11.67094621979</v>
-      </c>
-      <c r="S26">
-        <v>0.002716392358705627</v>
-      </c>
-      <c r="T26">
-        <v>0.003610979770590954</v>
+        <v>0.002504105850175345</v>
       </c>
     </row>
   </sheetData>
